--- a/設計っぽいもの.xlsx
+++ b/設計っぽいもの.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\FileVerUpTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>VersionReadWrite</t>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>SdkTypeCsprojHandler</t>
     <phoneticPr fontId="1"/>
@@ -58,10 +54,6 @@
   </si>
   <si>
     <t>Search</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMainWindow</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -174,6 +166,14 @@
     <rPh sb="7" eb="9">
       <t>イッショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VersionReadWrite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVersionReadWriteWindow</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1013,6 +1013,53 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473824" y="4953000"/>
+          <a:ext cx="14668500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1289,7 +1336,7 @@
   <sheetData>
     <row r="4" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E4" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -1520,7 +1567,7 @@
     </row>
     <row r="11" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E11" s="59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
@@ -1577,7 +1624,7 @@
     </row>
     <row r="12" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E12" s="62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
@@ -1698,7 +1745,7 @@
     </row>
     <row r="17" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1886,7 +1933,7 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA20" s="24"/>
       <c r="AB20" s="24"/>
@@ -1943,7 +1990,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
@@ -2000,7 +2047,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
@@ -2057,7 +2104,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
@@ -2114,7 +2161,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" s="27"/>
       <c r="AB24" s="27"/>
@@ -2264,10 +2311,10 @@
     </row>
     <row r="28" spans="5:57" x14ac:dyDescent="0.15">
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="5:57" x14ac:dyDescent="0.15">
@@ -2276,7 +2323,7 @@
     </row>
     <row r="30" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E30" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -2294,7 +2341,7 @@
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="X30" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -2332,7 +2379,7 @@
     </row>
     <row r="31" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E31" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -2350,7 +2397,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="19"/>
       <c r="X31" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
@@ -2562,7 +2609,7 @@
     </row>
     <row r="38" spans="5:57" x14ac:dyDescent="0.15">
       <c r="E38" s="41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -2580,7 +2627,7 @@
       <c r="S38" s="42"/>
       <c r="T38" s="43"/>
       <c r="X38" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
@@ -2592,7 +2639,7 @@
       <c r="AF38" s="33"/>
       <c r="AG38" s="34"/>
       <c r="AJ38" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="33"/>
       <c r="AL38" s="33"/>
@@ -2604,7 +2651,7 @@
       <c r="AR38" s="33"/>
       <c r="AS38" s="34"/>
       <c r="AV38" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW38" s="33"/>
       <c r="AX38" s="33"/>
@@ -2634,7 +2681,7 @@
       <c r="S39" s="45"/>
       <c r="T39" s="46"/>
       <c r="X39" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
@@ -2646,7 +2693,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="37"/>
       <c r="AJ39" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK39" s="36"/>
       <c r="AL39" s="36"/>
@@ -2658,7 +2705,7 @@
       <c r="AR39" s="36"/>
       <c r="AS39" s="37"/>
       <c r="AV39" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW39" s="36"/>
       <c r="AX39" s="36"/>
@@ -2824,15 +2871,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U11:CS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CL7" sqref="CL7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CY28" sqref="CY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="11" spans="22:97" x14ac:dyDescent="0.15">
       <c r="V11" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -3095,7 +3142,7 @@
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX14" s="24"/>
       <c r="AY14" s="24"/>
@@ -3175,7 +3222,7 @@
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
@@ -3255,7 +3302,7 @@
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
@@ -3335,7 +3382,7 @@
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
@@ -3415,7 +3462,7 @@
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
@@ -3630,10 +3677,10 @@
     <row r="22" spans="22:97" x14ac:dyDescent="0.15">
       <c r="AC22" s="2"/>
       <c r="AV22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="22:97" x14ac:dyDescent="0.15">
@@ -3643,7 +3690,7 @@
     </row>
     <row r="24" spans="22:97" x14ac:dyDescent="0.15">
       <c r="V24" s="14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -3661,7 +3708,7 @@
       <c r="AJ24" s="15"/>
       <c r="AK24" s="16"/>
       <c r="AS24" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT24" s="15"/>
       <c r="AU24" s="15"/>
@@ -3679,7 +3726,7 @@
       <c r="BG24" s="15"/>
       <c r="BH24" s="16"/>
       <c r="BL24" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM24" s="15"/>
       <c r="BN24" s="15"/>
@@ -3717,7 +3764,7 @@
     </row>
     <row r="25" spans="22:97" x14ac:dyDescent="0.15">
       <c r="V25" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
@@ -3735,7 +3782,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
       <c r="AS25" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT25" s="18"/>
       <c r="AU25" s="18"/>
@@ -3753,7 +3800,7 @@
       <c r="BG25" s="18"/>
       <c r="BH25" s="19"/>
       <c r="BL25" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM25" s="18"/>
       <c r="BN25" s="18"/>
@@ -4016,7 +4063,7 @@
     </row>
     <row r="32" spans="22:97" x14ac:dyDescent="0.15">
       <c r="V32" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W32" s="51"/>
       <c r="X32" s="51"/>
@@ -4034,7 +4081,7 @@
       <c r="AJ32" s="51"/>
       <c r="AK32" s="52"/>
       <c r="AS32" s="41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT32" s="42"/>
       <c r="AU32" s="42"/>
@@ -4052,7 +4099,7 @@
       <c r="BG32" s="42"/>
       <c r="BH32" s="43"/>
       <c r="BL32" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="33"/>
       <c r="BN32" s="33"/>
@@ -4064,7 +4111,7 @@
       <c r="BT32" s="33"/>
       <c r="BU32" s="34"/>
       <c r="BX32" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY32" s="33"/>
       <c r="BZ32" s="33"/>
@@ -4076,7 +4123,7 @@
       <c r="CF32" s="33"/>
       <c r="CG32" s="34"/>
       <c r="CJ32" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK32" s="33"/>
       <c r="CL32" s="33"/>
@@ -4122,7 +4169,7 @@
       <c r="BG33" s="45"/>
       <c r="BH33" s="46"/>
       <c r="BL33" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BM33" s="36"/>
       <c r="BN33" s="36"/>
@@ -4134,7 +4181,7 @@
       <c r="BT33" s="36"/>
       <c r="BU33" s="37"/>
       <c r="BX33" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BY33" s="36"/>
       <c r="BZ33" s="36"/>
@@ -4146,7 +4193,7 @@
       <c r="CF33" s="36"/>
       <c r="CG33" s="37"/>
       <c r="CJ33" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CK33" s="36"/>
       <c r="CL33" s="36"/>
@@ -4432,7 +4479,7 @@
       <c r="AJ40" s="54"/>
       <c r="AK40" s="55"/>
       <c r="AR40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="21:97" x14ac:dyDescent="0.15">
